--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandReason.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandReason.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192173C1-0224-4F3F-B2E7-E43E67584EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="-12" windowWidth="15684" windowHeight="9480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -160,9 +166,6 @@
     <t>修改原因</t>
   </si>
   <si>
-    <t>1:補齊舊資料;2:資料錯誤;3:部分塗銷（持分）;4:部分塗銷（車位）;5:政府機關通知;6:其他：</t>
-  </si>
-  <si>
     <t>OtherReason</t>
   </si>
   <si>
@@ -257,13 +260,22 @@
   </si>
   <si>
     <t>ClLand(ClCode1,ClCode2,ClNo)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:補齊舊資料
+2:資料錯誤
+3:部分塗銷（持分）
+4:部分塗銷（車位）
+5:政府機關通知
+6:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -483,7 +495,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,9 +586,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,6 +638,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,11 +830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -804,14 +850,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -821,10 +867,10 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -832,11 +878,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -845,14 +891,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -860,14 +906,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -875,7 +921,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
@@ -886,7 +932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="15"/>
@@ -897,7 +943,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>19</v>
@@ -923,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>16</v>
@@ -942,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>17</v>
@@ -961,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>14</v>
@@ -980,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>25</v>
@@ -994,12 +1040,12 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>26</v>
@@ -1012,7 +1058,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1020,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>18</v>
@@ -1321,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1350,24 +1396,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandReason.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ClLandReason.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192173C1-0224-4F3F-B2E7-E43E67584EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66A7AD4-6434-4F7F-9C16-2F6264C4C023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="5292" windowWidth="15684" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ClCode1,ClCode2,ClNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ClCode1 ASC,ClCode2 ASC,ClNo ASC,ReasonSeq DESC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,10 +253,6 @@
   <si>
     <t>ClCode1 ASC,ClCode2 ASC,ClNo ASC,ReasonSeq ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClLand(ClCode1,ClCode2,ClNo)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1:補齊舊資料
@@ -834,7 +826,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -854,10 +846,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -867,7 +859,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>32</v>
@@ -894,12 +886,8 @@
         <v>34</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -913,7 +901,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1058,7 +1046,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,13 +1395,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
